--- a/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
+++ b/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
@@ -9,23 +9,29 @@
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>未获卵周期数</t>
   </si>
   <si>
-    <t>hcgSum</t>
+    <t>hcgSumInt</t>
+  </si>
+  <si>
+    <t>hcgSumCase</t>
   </si>
   <si>
     <t>@SumInt_Data_未获卵记数</t>
   </si>
   <si>
-    <t>@SumInt_Data_hcgSum</t>
+    <t>@SumInt_Data_hcgSumInt</t>
+  </si>
+  <si>
+    <t>@SumInt_Data_hcgSumCase</t>
   </si>
   <si>
     <t>序号</t>
@@ -46,25 +52,19 @@
     <t>未获卵记数</t>
   </si>
   <si>
-    <t>预产期</t>
+    <t>周期总结</t>
   </si>
   <si>
-    <t>联系电话</t>
+    <t>周期总结分类</t>
   </si>
   <si>
-    <t>建档日期</t>
+    <t>2PN个数</t>
   </si>
   <si>
-    <t>当前孕周</t>
+    <t>2PN个数分类</t>
   </si>
   <si>
-    <t>丈夫姓名</t>
-  </si>
-  <si>
-    <t>丈夫电话</t>
-  </si>
-  <si>
-    <t>现住地</t>
+    <t>取卵日期分类</t>
   </si>
   <si>
     <t>建册机构</t>
@@ -109,6 +109,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -125,83 +200,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,11 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,23 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +268,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,31 +322,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,31 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,73 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,23 +470,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -558,9 +556,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,13 +1043,13 @@
   <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
@@ -1063,7 +1063,9 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -17446,53 +17448,56 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
@@ -17531,31 +17536,31 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_预产期</v>
+        <v>@Loop1000_Data_周期总结</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_联系电话</v>
+        <v>@Loop1000_Data_周期总结分类</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_建档日期</v>
+        <v>@Loop1000_Data_2PN个数</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_当前孕周</v>
+        <v>@Loop1000_Data_2PN个数分类</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_丈夫姓名</v>
+        <v>@Loop1000_Data_取卵日期</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_丈夫电话</v>
+        <v>@Loop1000_Data_取卵日期分类</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_现住地</v>
+        <v>@Loop1000_Data_hcgSumInt</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>

--- a/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
+++ b/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="26040" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>取卵日期分类</t>
   </si>
   <si>
-    <t>建册机构</t>
+    <t>最近一次PN分类</t>
   </si>
   <si>
-    <t>管理机构</t>
+    <t>最早一次PN分类</t>
   </si>
   <si>
-    <t>结案</t>
+    <t>PN分类求和</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,75 +109,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,25 +125,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +176,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -237,17 +214,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +268,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,37 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,43 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,55 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +467,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +521,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,51 +564,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1053,7 +1053,10 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="16" width="13.125" customWidth="1"/>
+    <col min="7" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16384">
@@ -17499,13 +17502,13 @@
       <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -17564,15 +17567,15 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_建册机构</v>
+        <v>@Loop1000_Data_最近一次PN分类</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_管理机构</v>
+        <v>@Loop1000_Data_最早一次PN分类</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>@Loop1000_Data_结案</v>
+        <v>@Loop1000_Data_PN分类求和</v>
       </c>
     </row>
   </sheetData>

--- a/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
+++ b/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26040" windowHeight="12270"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>未获卵周期数</t>
   </si>
@@ -75,14 +75,17 @@
   <si>
     <t>PN分类求和</t>
   </si>
+  <si>
+    <t>shenhuatable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -110,29 +113,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,26 +210,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,29 +228,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,30 +251,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +271,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +319,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,91 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,37 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +470,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,30 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,22 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,16 +547,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1056,7 +1059,10 @@
     <col min="7" max="13" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="17.25" customWidth="1"/>
     <col min="15" max="15" width="16.625" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="27.25" customWidth="1"/>
+    <col min="17" max="17" width="30.375" customWidth="1"/>
+    <col min="18" max="18" width="27.125" customWidth="1"/>
+    <col min="19" max="19" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16384">
@@ -17462,7 +17468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -17511,8 +17517,17 @@
       <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" customFormat="1" spans="1:16">
+    <row r="5" customFormat="1" spans="1:19">
       <c r="A5" t="str">
         <f>"@Loop1000_Data_"&amp;A4</f>
         <v>@Loop1000_Data_序号</v>
@@ -17577,6 +17592,18 @@
         <f t="shared" si="0"/>
         <v>@Loop1000_Data_PN分类求和</v>
       </c>
+      <c r="Q5" t="str">
+        <f>"@Loop1000_Data_"&amp;Q4</f>
+        <v>@Loop1000_Data_shenhuatable</v>
+      </c>
+      <c r="R5" t="str">
+        <f>"@Loop1000_Data_"&amp;R4</f>
+        <v>@Loop1000_Data_hcgSumInt</v>
+      </c>
+      <c r="S5" t="str">
+        <f>"@Loop1000_Data_"&amp;S4</f>
+        <v>@Loop1000_Data_hcgSumCase</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
+++ b/VL.Research/XMLConfig/Sample_YPF/列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>未获卵周期数</t>
   </si>
@@ -58,6 +58,9 @@
     <t>周期总结分类</t>
   </si>
   <si>
+    <t>周期总结分类文本</t>
+  </si>
+  <si>
     <t>2PN个数</t>
   </si>
   <si>
@@ -86,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,7 +138,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,47 +184,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,14 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -226,16 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +280,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,91 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,37 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +483,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -490,21 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,73 +588,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -660,34 +663,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,22 +684,37 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:XEM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1056,16 +1059,16 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1"/>
-    <col min="15" max="15" width="16.625" customWidth="1"/>
-    <col min="16" max="16" width="27.25" customWidth="1"/>
-    <col min="17" max="17" width="30.375" customWidth="1"/>
-    <col min="18" max="18" width="27.125" customWidth="1"/>
-    <col min="19" max="19" width="28.25" customWidth="1"/>
+    <col min="7" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="16.625" customWidth="1"/>
+    <col min="17" max="17" width="27.25" customWidth="1"/>
+    <col min="18" max="18" width="30.375" customWidth="1"/>
+    <col min="19" max="19" width="27.125" customWidth="1"/>
+    <col min="20" max="20" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16384">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16367">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17439,23 +17442,6 @@
       <c r="XEK1" s="3"/>
       <c r="XEL1" s="3"/>
       <c r="XEM1" s="3"/>
-      <c r="XEN1" s="3"/>
-      <c r="XEO1" s="3"/>
-      <c r="XEP1" s="3"/>
-      <c r="XEQ1" s="3"/>
-      <c r="XER1" s="3"/>
-      <c r="XES1" s="3"/>
-      <c r="XET1" s="3"/>
-      <c r="XEU1" s="3"/>
-      <c r="XEV1" s="3"/>
-      <c r="XEW1" s="3"/>
-      <c r="XEX1" s="3"/>
-      <c r="XEY1" s="3"/>
-      <c r="XEZ1" s="3"/>
-      <c r="XFA1" s="3"/>
-      <c r="XFB1" s="3"/>
-      <c r="XFC1" s="3"/>
-      <c r="XFD1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -17468,7 +17454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:19">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -17500,16 +17486,16 @@
         <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>16</v>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>18</v>
@@ -17517,17 +17503,20 @@
       <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:19">
+    <row r="5" customFormat="1" spans="1:20">
       <c r="A5" t="str">
         <f>"@Loop1000_Data_"&amp;A4</f>
         <v>@Loop1000_Data_序号</v>
@@ -17537,15 +17526,15 @@
         <v>@Loop1000_Data_取卵日期</v>
       </c>
       <c r="C5" t="str">
-        <f>"@Loop1000_Data_"&amp;C4</f>
+        <f t="shared" ref="C5:H5" si="0">"@Loop1000_Data_"&amp;C4</f>
         <v>@Loop1000_Data_女方姓名</v>
       </c>
       <c r="D5" t="str">
-        <f>"@Loop1000_Data_"&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>@Loop1000_Data_男方姓名</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:P5" si="0">"@Loop1000_Data_"&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>@Loop1000_Data_获卵数</v>
       </c>
       <c r="F5" t="str">
@@ -17561,47 +17550,51 @@
         <v>@Loop1000_Data_周期总结分类</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:T5" si="1">"@Loop1000_Data_"&amp;I4</f>
+        <v>@Loop1000_Data_周期总结分类文本</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_2PN个数</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_2PN个数分类</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_取卵日期</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_取卵日期分类</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_hcgSumInt</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="0"/>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_最近一次PN分类</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="0"/>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_最早一次PN分类</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_PN分类求和</v>
       </c>
-      <c r="Q5" t="str">
-        <f>"@Loop1000_Data_"&amp;Q4</f>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_shenhuatable</v>
       </c>
-      <c r="R5" t="str">
-        <f>"@Loop1000_Data_"&amp;R4</f>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_hcgSumInt</v>
       </c>
-      <c r="S5" t="str">
-        <f>"@Loop1000_Data_"&amp;S4</f>
+      <c r="T5" t="str">
+        <f t="shared" si="1"/>
         <v>@Loop1000_Data_hcgSumCase</v>
       </c>
     </row>
